--- a/Code/Results/Cases/Case_4_255/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_255/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.031382449503742</v>
+        <v>1.055303966889797</v>
       </c>
       <c r="D2">
-        <v>1.047611694910393</v>
+        <v>1.060442637466814</v>
       </c>
       <c r="E2">
-        <v>1.04874031649566</v>
+        <v>1.068286362931247</v>
       </c>
       <c r="F2">
-        <v>1.054798237438171</v>
+        <v>1.074213382735155</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.062428545552272</v>
+        <v>1.051295596365869</v>
       </c>
       <c r="J2">
-        <v>1.052663386108414</v>
+        <v>1.06031152967956</v>
       </c>
       <c r="K2">
-        <v>1.058445301917312</v>
+        <v>1.063169404769189</v>
       </c>
       <c r="L2">
-        <v>1.059559949470091</v>
+        <v>1.07099195175525</v>
       </c>
       <c r="M2">
-        <v>1.065543499498502</v>
+        <v>1.076903190060427</v>
       </c>
       <c r="N2">
-        <v>1.054158288858866</v>
+        <v>1.061817293671138</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.035870987931462</v>
+        <v>1.056254642602417</v>
       </c>
       <c r="D3">
-        <v>1.051076400928331</v>
+        <v>1.06119572069401</v>
       </c>
       <c r="E3">
-        <v>1.052799924644025</v>
+        <v>1.069197440842335</v>
       </c>
       <c r="F3">
-        <v>1.058926975819166</v>
+        <v>1.075141284597221</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.064052977277874</v>
+        <v>1.051575462635624</v>
       </c>
       <c r="J3">
-        <v>1.055429346058909</v>
+        <v>1.060913824866073</v>
       </c>
       <c r="K3">
-        <v>1.061094940835384</v>
+        <v>1.06373706922099</v>
       </c>
       <c r="L3">
-        <v>1.062799015886752</v>
+        <v>1.071718741944794</v>
       </c>
       <c r="M3">
-        <v>1.068857558452101</v>
+        <v>1.077647901902843</v>
       </c>
       <c r="N3">
-        <v>1.05692817678975</v>
+        <v>1.0624204441859</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.038718244221061</v>
+        <v>1.056870293256515</v>
       </c>
       <c r="D4">
-        <v>1.053276655939637</v>
+        <v>1.0616834095119</v>
       </c>
       <c r="E4">
-        <v>1.055380113522498</v>
+        <v>1.069787797989484</v>
       </c>
       <c r="F4">
-        <v>1.061551243892045</v>
+        <v>1.075742555340395</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.065073446167026</v>
+        <v>1.051755473929342</v>
       </c>
       <c r="J4">
-        <v>1.057180837939449</v>
+        <v>1.061303398904246</v>
       </c>
       <c r="K4">
-        <v>1.062771943440015</v>
+        <v>1.064104112766537</v>
       </c>
       <c r="L4">
-        <v>1.06485311780226</v>
+        <v>1.072189216198378</v>
       </c>
       <c r="M4">
-        <v>1.0709594960412</v>
+        <v>1.078130002388835</v>
       </c>
       <c r="N4">
-        <v>1.05868215598966</v>
+        <v>1.062810571463891</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.039902025234006</v>
+        <v>1.057129231427044</v>
       </c>
       <c r="D5">
-        <v>1.054191984403508</v>
+        <v>1.061888526768955</v>
       </c>
       <c r="E5">
-        <v>1.056454030038109</v>
+        <v>1.070036181179395</v>
       </c>
       <c r="F5">
-        <v>1.062643539735009</v>
+        <v>1.075995533123257</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.065495290753371</v>
+        <v>1.051830891304968</v>
       </c>
       <c r="J5">
-        <v>1.057908276196913</v>
+        <v>1.061467138654798</v>
       </c>
       <c r="K5">
-        <v>1.063468238102227</v>
+        <v>1.064258351440549</v>
       </c>
       <c r="L5">
-        <v>1.065706967195163</v>
+        <v>1.07238704848887</v>
       </c>
       <c r="M5">
-        <v>1.071833295070841</v>
+        <v>1.07833272941691</v>
       </c>
       <c r="N5">
-        <v>1.059410627292888</v>
+        <v>1.06297454374367</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.04010002617419</v>
+        <v>1.057172715211946</v>
       </c>
       <c r="D6">
-        <v>1.054345114443348</v>
+        <v>1.061922972266039</v>
       </c>
       <c r="E6">
-        <v>1.05663372285407</v>
+        <v>1.070077897324811</v>
       </c>
       <c r="F6">
-        <v>1.062826309766047</v>
+        <v>1.076038021102159</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.065565705389689</v>
+        <v>1.051843538986983</v>
       </c>
       <c r="J6">
-        <v>1.058029902721529</v>
+        <v>1.061494629071215</v>
       </c>
       <c r="K6">
-        <v>1.063584645137226</v>
+        <v>1.064284244867901</v>
       </c>
       <c r="L6">
-        <v>1.065849772478362</v>
+        <v>1.072420268001434</v>
       </c>
       <c r="M6">
-        <v>1.071979440705451</v>
+        <v>1.078366771190653</v>
       </c>
       <c r="N6">
-        <v>1.05953242654112</v>
+        <v>1.063002073199631</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.038734113241774</v>
+        <v>1.056873752736158</v>
       </c>
       <c r="D7">
-        <v>1.053288924154453</v>
+        <v>1.061686149935477</v>
       </c>
       <c r="E7">
-        <v>1.055394505182079</v>
+        <v>1.069791116125291</v>
       </c>
       <c r="F7">
-        <v>1.061565881726551</v>
+        <v>1.075745934843816</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.065079110783039</v>
+        <v>1.051756482679912</v>
       </c>
       <c r="J7">
-        <v>1.057190592580074</v>
+        <v>1.061305586950093</v>
       </c>
       <c r="K7">
-        <v>1.062781281282521</v>
+        <v>1.064106173973534</v>
       </c>
       <c r="L7">
-        <v>1.064864564674399</v>
+        <v>1.072191859468077</v>
       </c>
       <c r="M7">
-        <v>1.070971210105963</v>
+        <v>1.078132711034538</v>
       </c>
       <c r="N7">
-        <v>1.058691924482994</v>
+        <v>1.062812762617015</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.032911491794567</v>
+        <v>1.055625148063477</v>
       </c>
       <c r="D8">
-        <v>1.048791422143484</v>
+        <v>1.060697063155417</v>
       </c>
       <c r="E8">
-        <v>1.050122169225597</v>
+        <v>1.068594093537783</v>
       </c>
       <c r="F8">
-        <v>1.056203591078202</v>
+        <v>1.074526793384692</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.062983984529536</v>
+        <v>1.051390401925563</v>
       </c>
       <c r="J8">
-        <v>1.053606247534297</v>
+        <v>1.060515108884232</v>
       </c>
       <c r="K8">
-        <v>1.059348681941385</v>
+        <v>1.063361305617789</v>
       </c>
       <c r="L8">
-        <v>1.060663451337415</v>
+        <v>1.071237533374413</v>
       </c>
       <c r="M8">
-        <v>1.066672491032514</v>
+        <v>1.077154822203385</v>
       </c>
       <c r="N8">
-        <v>1.055102489256121</v>
+        <v>1.062021161981631</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.022191392096463</v>
+        <v>1.053428821732236</v>
       </c>
       <c r="D9">
-        <v>1.040532628163616</v>
+        <v>1.058957240237449</v>
       </c>
       <c r="E9">
-        <v>1.040456696416411</v>
+        <v>1.066491195284448</v>
       </c>
       <c r="F9">
-        <v>1.046374388105802</v>
+        <v>1.072385130120537</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.059049005170413</v>
+        <v>1.05073706916053</v>
       </c>
       <c r="J9">
-        <v>1.04698413766687</v>
+        <v>1.059121070296057</v>
       </c>
       <c r="K9">
-        <v>1.053000622794766</v>
+        <v>1.062046703343928</v>
       </c>
       <c r="L9">
-        <v>1.052925804233421</v>
+        <v>1.069557413098891</v>
       </c>
       <c r="M9">
-        <v>1.058757354343678</v>
+        <v>1.07543341108958</v>
       </c>
       <c r="N9">
-        <v>1.048470975233116</v>
+        <v>1.060625143698762</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.01470223571772</v>
+        <v>1.051967270103258</v>
       </c>
       <c r="D10">
-        <v>1.034780688688969</v>
+        <v>1.057799505286335</v>
       </c>
       <c r="E10">
-        <v>1.033734783886192</v>
+        <v>1.065093652936953</v>
       </c>
       <c r="F10">
-        <v>1.039539492201595</v>
+        <v>1.070961888646383</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.056249793291026</v>
+        <v>1.050296001534027</v>
       </c>
       <c r="J10">
-        <v>1.042344437458186</v>
+        <v>1.058191018633595</v>
       </c>
       <c r="K10">
-        <v>1.048549133893818</v>
+        <v>1.061168983126053</v>
       </c>
       <c r="L10">
-        <v>1.047520537221698</v>
+        <v>1.068438425311847</v>
       </c>
       <c r="M10">
-        <v>1.053229751628686</v>
+        <v>1.074287053307336</v>
       </c>
       <c r="N10">
-        <v>1.043824686117955</v>
+        <v>1.059693771256261</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.011370107611808</v>
+        <v>1.05133504687127</v>
       </c>
       <c r="D11">
-        <v>1.032226431709584</v>
+        <v>1.057298719182042</v>
       </c>
       <c r="E11">
-        <v>1.030751821421831</v>
+        <v>1.064489559738121</v>
       </c>
       <c r="F11">
-        <v>1.036506622317755</v>
+        <v>1.070346702105673</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.054992980027659</v>
+        <v>1.050103714235249</v>
       </c>
       <c r="J11">
-        <v>1.040277409051144</v>
+        <v>1.057788143561727</v>
       </c>
       <c r="K11">
-        <v>1.046565161765356</v>
+        <v>1.060788620034123</v>
       </c>
       <c r="L11">
-        <v>1.045116205930685</v>
+        <v>1.067954164365735</v>
       </c>
       <c r="M11">
-        <v>1.050771422434773</v>
+        <v>1.073790978732751</v>
       </c>
       <c r="N11">
-        <v>1.041754722293483</v>
+        <v>1.05929032405558</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.010118257529216</v>
+        <v>1.051100307857825</v>
       </c>
       <c r="D12">
-        <v>1.031267627789713</v>
+        <v>1.057112784486417</v>
       </c>
       <c r="E12">
-        <v>1.02963237256668</v>
+        <v>1.064265331989304</v>
       </c>
       <c r="F12">
-        <v>1.035368480804751</v>
+        <v>1.070118359023621</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.054519146726591</v>
+        <v>1.050032095100311</v>
       </c>
       <c r="J12">
-        <v>1.039500483033323</v>
+        <v>1.057638475221189</v>
       </c>
       <c r="K12">
-        <v>1.045819344065737</v>
+        <v>1.060647291460654</v>
       </c>
       <c r="L12">
-        <v>1.044213061968107</v>
+        <v>1.06777432967354</v>
       </c>
       <c r="M12">
-        <v>1.049848060446535</v>
+        <v>1.073606761653936</v>
       </c>
       <c r="N12">
-        <v>1.040976692951602</v>
+        <v>1.059140443168832</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.010387436299577</v>
+        <v>1.051150655775285</v>
       </c>
       <c r="D13">
-        <v>1.031473756825879</v>
+        <v>1.057152664488281</v>
       </c>
       <c r="E13">
-        <v>1.02987302568745</v>
+        <v>1.064313422369688</v>
       </c>
       <c r="F13">
-        <v>1.035613150684114</v>
+        <v>1.070167331919784</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.054621106835191</v>
+        <v>1.05004746646627</v>
       </c>
       <c r="J13">
-        <v>1.03966755702165</v>
+        <v>1.057670580596219</v>
       </c>
       <c r="K13">
-        <v>1.045979733169368</v>
+        <v>1.060677608930717</v>
       </c>
       <c r="L13">
-        <v>1.044407253097333</v>
+        <v>1.06781290293507</v>
       </c>
       <c r="M13">
-        <v>1.050046595798841</v>
+        <v>1.073646274692616</v>
       </c>
       <c r="N13">
-        <v>1.041144004204156</v>
+        <v>1.059172594137177</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.011266922375775</v>
+        <v>1.051315641290063</v>
       </c>
       <c r="D14">
-        <v>1.03214738435832</v>
+        <v>1.057283348131435</v>
       </c>
       <c r="E14">
-        <v>1.030659524351177</v>
+        <v>1.064471021743796</v>
       </c>
       <c r="F14">
-        <v>1.036412783305368</v>
+        <v>1.070327823829757</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.054953957213906</v>
+        <v>1.050097798151366</v>
       </c>
       <c r="J14">
-        <v>1.0402133771059</v>
+        <v>1.057775772385722</v>
       </c>
       <c r="K14">
-        <v>1.046503695849807</v>
+        <v>1.060776938678237</v>
       </c>
       <c r="L14">
-        <v>1.045041760051766</v>
+        <v>1.067939298323378</v>
       </c>
       <c r="M14">
-        <v>1.050695308647767</v>
+        <v>1.073775750323965</v>
       </c>
       <c r="N14">
-        <v>1.041690599415532</v>
+        <v>1.059277935311087</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.011806904952691</v>
+        <v>1.05141730717236</v>
       </c>
       <c r="D15">
-        <v>1.032561083353184</v>
+        <v>1.057363877219221</v>
       </c>
       <c r="E15">
-        <v>1.031142577820878</v>
+        <v>1.064568145076585</v>
       </c>
       <c r="F15">
-        <v>1.036903908313471</v>
+        <v>1.070426730043213</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.055158101599204</v>
+        <v>1.050128783331649</v>
       </c>
       <c r="J15">
-        <v>1.040548450602197</v>
+        <v>1.057840581551769</v>
       </c>
       <c r="K15">
-        <v>1.046825337125196</v>
+        <v>1.060838133108042</v>
       </c>
       <c r="L15">
-        <v>1.045431351663656</v>
+        <v>1.068017180210485</v>
       </c>
       <c r="M15">
-        <v>1.05109363146636</v>
+        <v>1.073855530809992</v>
       </c>
       <c r="N15">
-        <v>1.042026148754628</v>
+        <v>1.059342836513583</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.014921435421674</v>
+        <v>1.052009242205711</v>
       </c>
       <c r="D16">
-        <v>1.034948825491242</v>
+        <v>1.057832751895573</v>
       </c>
       <c r="E16">
-        <v>1.033931180977712</v>
+        <v>1.065133766888201</v>
       </c>
       <c r="F16">
-        <v>1.03973918015721</v>
+        <v>1.07100273955729</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.056332238185378</v>
+        <v>1.050308735622296</v>
       </c>
       <c r="J16">
-        <v>1.04248036156672</v>
+        <v>1.058217752905229</v>
       </c>
       <c r="K16">
-        <v>1.048679580631501</v>
+        <v>1.06119422023885</v>
       </c>
       <c r="L16">
-        <v>1.047678719944485</v>
+        <v>1.06847056985929</v>
       </c>
       <c r="M16">
-        <v>1.053391495839823</v>
+        <v>1.074319982686052</v>
       </c>
       <c r="N16">
-        <v>1.043960803254314</v>
+        <v>1.059720543493627</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.016850692238798</v>
+        <v>1.05238071896643</v>
       </c>
       <c r="D17">
-        <v>1.036429228831831</v>
+        <v>1.058127004950043</v>
       </c>
       <c r="E17">
-        <v>1.03566063767029</v>
+        <v>1.065488849059976</v>
       </c>
       <c r="F17">
-        <v>1.041497642479521</v>
+        <v>1.071364346936537</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.057056576924645</v>
+        <v>1.050421266720965</v>
       </c>
       <c r="J17">
-        <v>1.043676376972865</v>
+        <v>1.058454301263437</v>
       </c>
       <c r="K17">
-        <v>1.049827310689646</v>
+        <v>1.061417503452601</v>
       </c>
       <c r="L17">
-        <v>1.049071020044562</v>
+        <v>1.068755041773758</v>
       </c>
       <c r="M17">
-        <v>1.054815191568135</v>
+        <v>1.074611403786758</v>
       </c>
       <c r="N17">
-        <v>1.04515851713952</v>
+        <v>1.059957427777636</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.01796743381589</v>
+        <v>1.052597456595563</v>
       </c>
       <c r="D18">
-        <v>1.037286617757925</v>
+        <v>1.058298687936436</v>
       </c>
       <c r="E18">
-        <v>1.036662462627992</v>
+        <v>1.065696063883057</v>
       </c>
       <c r="F18">
-        <v>1.042516291385879</v>
+        <v>1.071575371133775</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.057474774655048</v>
+        <v>1.050486778535163</v>
       </c>
       <c r="J18">
-        <v>1.044368425770815</v>
+        <v>1.058592260750593</v>
       </c>
       <c r="K18">
-        <v>1.050491344278952</v>
+        <v>1.061547711334884</v>
       </c>
       <c r="L18">
-        <v>1.049877002025529</v>
+        <v>1.068920995227391</v>
       </c>
       <c r="M18">
-        <v>1.055639387589335</v>
+        <v>1.07478141422324</v>
       </c>
       <c r="N18">
-        <v>1.045851548726142</v>
+        <v>1.060095583183088</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.018346783255002</v>
+        <v>1.052671368931979</v>
       </c>
       <c r="D19">
-        <v>1.037577943715323</v>
+        <v>1.058357235865596</v>
       </c>
       <c r="E19">
-        <v>1.037002899171935</v>
+        <v>1.06576673594147</v>
       </c>
       <c r="F19">
-        <v>1.04286244862738</v>
+        <v>1.071647342654202</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.057616648538231</v>
+        <v>1.050509095037835</v>
       </c>
       <c r="J19">
-        <v>1.044603464744366</v>
+        <v>1.058639298769751</v>
       </c>
       <c r="K19">
-        <v>1.050716855354944</v>
+        <v>1.061592103835564</v>
       </c>
       <c r="L19">
-        <v>1.05015079654964</v>
+        <v>1.068977585408996</v>
       </c>
       <c r="M19">
-        <v>1.055919376120999</v>
+        <v>1.074839388347115</v>
       </c>
       <c r="N19">
-        <v>1.046086921481995</v>
+        <v>1.060142688001629</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.016644591940395</v>
+        <v>1.052340856655467</v>
       </c>
       <c r="D20">
-        <v>1.036271030429818</v>
+        <v>1.058095429184436</v>
       </c>
       <c r="E20">
-        <v>1.035475805000815</v>
+        <v>1.065450741605509</v>
       </c>
       <c r="F20">
-        <v>1.041309707608047</v>
+        <v>1.071325539044248</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.056979308606303</v>
+        <v>1.050409206193857</v>
       </c>
       <c r="J20">
-        <v>1.043548634613317</v>
+        <v>1.058428923425509</v>
       </c>
       <c r="K20">
-        <v>1.049704733335692</v>
+        <v>1.061393550314967</v>
       </c>
       <c r="L20">
-        <v>1.048922276136207</v>
+        <v>1.068724517953106</v>
       </c>
       <c r="M20">
-        <v>1.054663089441447</v>
+        <v>1.074580134007332</v>
       </c>
       <c r="N20">
-        <v>1.045030593371169</v>
+        <v>1.059932013900267</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.011008332411105</v>
+        <v>1.051267054487058</v>
       </c>
       <c r="D21">
-        <v>1.031949298979485</v>
+        <v>1.057244862848845</v>
       </c>
       <c r="E21">
-        <v>1.030428240828248</v>
+        <v>1.064424608246289</v>
       </c>
       <c r="F21">
-        <v>1.036177636489979</v>
+        <v>1.070280558407919</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.054856136530252</v>
+        <v>1.050082982105013</v>
       </c>
       <c r="J21">
-        <v>1.040052902547619</v>
+        <v>1.057744796642035</v>
       </c>
       <c r="K21">
-        <v>1.04634965044835</v>
+        <v>1.060747689771949</v>
       </c>
       <c r="L21">
-        <v>1.044855195524282</v>
+        <v>1.067902076880586</v>
       </c>
       <c r="M21">
-        <v>1.050504565332841</v>
+        <v>1.073737621668059</v>
       </c>
       <c r="N21">
-        <v>1.041529896964972</v>
+        <v>1.059246915578291</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.007382325970305</v>
+        <v>1.050592473233273</v>
       </c>
       <c r="D22">
-        <v>1.029173710542444</v>
+        <v>1.056710539004475</v>
       </c>
       <c r="E22">
-        <v>1.027188112558792</v>
+        <v>1.063780360159286</v>
       </c>
       <c r="F22">
-        <v>1.03288347594502</v>
+        <v>1.069624490554983</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.053480581746139</v>
+        <v>1.04987674373167</v>
       </c>
       <c r="J22">
-        <v>1.037801886470647</v>
+        <v>1.057314528676516</v>
       </c>
       <c r="K22">
-        <v>1.044188568789476</v>
+        <v>1.060341352973107</v>
       </c>
       <c r="L22">
-        <v>1.042239546701304</v>
+        <v>1.067385215521279</v>
       </c>
       <c r="M22">
-        <v>1.047830488438803</v>
+        <v>1.073208173830311</v>
       </c>
       <c r="N22">
-        <v>1.039275684186976</v>
+        <v>1.058816036582909</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.009312598034451</v>
+        <v>1.050950028043804</v>
       </c>
       <c r="D23">
-        <v>1.030650801367808</v>
+        <v>1.056993750048274</v>
       </c>
       <c r="E23">
-        <v>1.028912274423137</v>
+        <v>1.064121800354715</v>
       </c>
       <c r="F23">
-        <v>1.034636368979087</v>
+        <v>1.069972193750764</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.054213737846247</v>
+        <v>1.049986181362801</v>
       </c>
       <c r="J23">
-        <v>1.039000376320819</v>
+        <v>1.057542633909106</v>
       </c>
       <c r="K23">
-        <v>1.045339232056089</v>
+        <v>1.060556783995518</v>
       </c>
       <c r="L23">
-        <v>1.043631867122633</v>
+        <v>1.06765919039202</v>
       </c>
       <c r="M23">
-        <v>1.049253873538782</v>
+        <v>1.073488817875691</v>
       </c>
       <c r="N23">
-        <v>1.040475876030204</v>
+        <v>1.059044465751093</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.016737746197031</v>
+        <v>1.052358868527912</v>
       </c>
       <c r="D24">
-        <v>1.036342532310685</v>
+        <v>1.058109696758907</v>
       </c>
       <c r="E24">
-        <v>1.035559344326498</v>
+        <v>1.065467960410687</v>
       </c>
       <c r="F24">
-        <v>1.041394648976967</v>
+        <v>1.07134307433684</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.057014236091678</v>
+        <v>1.050414656215264</v>
       </c>
       <c r="J24">
-        <v>1.043606373059105</v>
+        <v>1.058440390625038</v>
       </c>
       <c r="K24">
-        <v>1.049760137479589</v>
+        <v>1.061404373797859</v>
       </c>
       <c r="L24">
-        <v>1.048989505993195</v>
+        <v>1.068738310274161</v>
       </c>
       <c r="M24">
-        <v>1.054731837036668</v>
+        <v>1.074594263383807</v>
       </c>
       <c r="N24">
-        <v>1.045088413812173</v>
+        <v>1.059943497384535</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.025020585997532</v>
+        <v>1.053996159319252</v>
       </c>
       <c r="D25">
-        <v>1.042709420443997</v>
+        <v>1.059406653597585</v>
       </c>
       <c r="E25">
-        <v>1.04300248247618</v>
+        <v>1.067034077097912</v>
       </c>
       <c r="F25">
-        <v>1.04896315285783</v>
+        <v>1.072938008358619</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.060096333691936</v>
+        <v>1.05090694555797</v>
       </c>
       <c r="J25">
-        <v>1.04873428221888</v>
+        <v>1.059481588958292</v>
       </c>
       <c r="K25">
-        <v>1.054679027527923</v>
+        <v>1.062386796295663</v>
       </c>
       <c r="L25">
-        <v>1.054968000074606</v>
+        <v>1.069991576874961</v>
       </c>
       <c r="M25">
-        <v>1.060846118184707</v>
+        <v>1.07587822202753</v>
       </c>
       <c r="N25">
-        <v>1.050223605191134</v>
+        <v>1.060986174338849</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_255/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_255/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.055303966889797</v>
+        <v>1.031382449503741</v>
       </c>
       <c r="D2">
-        <v>1.060442637466814</v>
+        <v>1.047611694910392</v>
       </c>
       <c r="E2">
-        <v>1.068286362931247</v>
+        <v>1.048740316495659</v>
       </c>
       <c r="F2">
-        <v>1.074213382735155</v>
+        <v>1.054798237438169</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051295596365869</v>
+        <v>1.062428545552271</v>
       </c>
       <c r="J2">
-        <v>1.06031152967956</v>
+        <v>1.052663386108413</v>
       </c>
       <c r="K2">
-        <v>1.063169404769189</v>
+        <v>1.058445301917311</v>
       </c>
       <c r="L2">
-        <v>1.07099195175525</v>
+        <v>1.05955994947009</v>
       </c>
       <c r="M2">
-        <v>1.076903190060427</v>
+        <v>1.065543499498501</v>
       </c>
       <c r="N2">
-        <v>1.061817293671138</v>
+        <v>1.054158288858865</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.056254642602417</v>
+        <v>1.035870987931463</v>
       </c>
       <c r="D3">
-        <v>1.06119572069401</v>
+        <v>1.051076400928332</v>
       </c>
       <c r="E3">
-        <v>1.069197440842335</v>
+        <v>1.052799924644026</v>
       </c>
       <c r="F3">
-        <v>1.075141284597221</v>
+        <v>1.058926975819167</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051575462635624</v>
+        <v>1.064052977277874</v>
       </c>
       <c r="J3">
-        <v>1.060913824866073</v>
+        <v>1.055429346058909</v>
       </c>
       <c r="K3">
-        <v>1.06373706922099</v>
+        <v>1.061094940835385</v>
       </c>
       <c r="L3">
-        <v>1.071718741944794</v>
+        <v>1.062799015886753</v>
       </c>
       <c r="M3">
-        <v>1.077647901902843</v>
+        <v>1.068857558452102</v>
       </c>
       <c r="N3">
-        <v>1.0624204441859</v>
+        <v>1.056928176789751</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.056870293256515</v>
+        <v>1.038718244221061</v>
       </c>
       <c r="D4">
-        <v>1.0616834095119</v>
+        <v>1.053276655939638</v>
       </c>
       <c r="E4">
-        <v>1.069787797989484</v>
+        <v>1.055380113522498</v>
       </c>
       <c r="F4">
-        <v>1.075742555340395</v>
+        <v>1.061551243892046</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051755473929342</v>
+        <v>1.065073446167027</v>
       </c>
       <c r="J4">
-        <v>1.061303398904246</v>
+        <v>1.05718083793945</v>
       </c>
       <c r="K4">
-        <v>1.064104112766537</v>
+        <v>1.062771943440016</v>
       </c>
       <c r="L4">
-        <v>1.072189216198378</v>
+        <v>1.064853117802262</v>
       </c>
       <c r="M4">
-        <v>1.078130002388835</v>
+        <v>1.070959496041201</v>
       </c>
       <c r="N4">
-        <v>1.062810571463891</v>
+        <v>1.058682155989661</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.057129231427044</v>
+        <v>1.039902025234006</v>
       </c>
       <c r="D5">
-        <v>1.061888526768955</v>
+        <v>1.054191984403507</v>
       </c>
       <c r="E5">
-        <v>1.070036181179395</v>
+        <v>1.056454030038108</v>
       </c>
       <c r="F5">
-        <v>1.075995533123257</v>
+        <v>1.062643539735009</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051830891304968</v>
+        <v>1.065495290753371</v>
       </c>
       <c r="J5">
-        <v>1.061467138654798</v>
+        <v>1.057908276196912</v>
       </c>
       <c r="K5">
-        <v>1.064258351440549</v>
+        <v>1.063468238102227</v>
       </c>
       <c r="L5">
-        <v>1.07238704848887</v>
+        <v>1.065706967195162</v>
       </c>
       <c r="M5">
-        <v>1.07833272941691</v>
+        <v>1.07183329507084</v>
       </c>
       <c r="N5">
-        <v>1.06297454374367</v>
+        <v>1.059410627292887</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.057172715211946</v>
+        <v>1.040100026174189</v>
       </c>
       <c r="D6">
-        <v>1.061922972266039</v>
+        <v>1.054345114443347</v>
       </c>
       <c r="E6">
-        <v>1.070077897324811</v>
+        <v>1.056633722854069</v>
       </c>
       <c r="F6">
-        <v>1.076038021102159</v>
+        <v>1.062826309766046</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051843538986983</v>
+        <v>1.065565705389689</v>
       </c>
       <c r="J6">
-        <v>1.061494629071215</v>
+        <v>1.058029902721528</v>
       </c>
       <c r="K6">
-        <v>1.064284244867901</v>
+        <v>1.063584645137225</v>
       </c>
       <c r="L6">
-        <v>1.072420268001434</v>
+        <v>1.065849772478361</v>
       </c>
       <c r="M6">
-        <v>1.078366771190653</v>
+        <v>1.07197944070545</v>
       </c>
       <c r="N6">
-        <v>1.063002073199631</v>
+        <v>1.059532426541119</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.056873752736158</v>
+        <v>1.038734113241773</v>
       </c>
       <c r="D7">
-        <v>1.061686149935477</v>
+        <v>1.053288924154452</v>
       </c>
       <c r="E7">
-        <v>1.069791116125291</v>
+        <v>1.055394505182078</v>
       </c>
       <c r="F7">
-        <v>1.075745934843816</v>
+        <v>1.061565881726549</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051756482679912</v>
+        <v>1.065079110783038</v>
       </c>
       <c r="J7">
-        <v>1.061305586950093</v>
+        <v>1.057190592580073</v>
       </c>
       <c r="K7">
-        <v>1.064106173973534</v>
+        <v>1.06278128128252</v>
       </c>
       <c r="L7">
-        <v>1.072191859468077</v>
+        <v>1.064864564674398</v>
       </c>
       <c r="M7">
-        <v>1.078132711034538</v>
+        <v>1.070971210105962</v>
       </c>
       <c r="N7">
-        <v>1.062812762617015</v>
+        <v>1.058691924482993</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C8">
-        <v>1.055625148063477</v>
+        <v>1.032911491794567</v>
       </c>
       <c r="D8">
-        <v>1.060697063155417</v>
+        <v>1.048791422143484</v>
       </c>
       <c r="E8">
-        <v>1.068594093537783</v>
+        <v>1.050122169225597</v>
       </c>
       <c r="F8">
-        <v>1.074526793384692</v>
+        <v>1.056203591078202</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051390401925563</v>
+        <v>1.062983984529536</v>
       </c>
       <c r="J8">
-        <v>1.060515108884232</v>
+        <v>1.053606247534297</v>
       </c>
       <c r="K8">
-        <v>1.063361305617789</v>
+        <v>1.059348681941385</v>
       </c>
       <c r="L8">
-        <v>1.071237533374413</v>
+        <v>1.060663451337415</v>
       </c>
       <c r="M8">
-        <v>1.077154822203385</v>
+        <v>1.066672491032514</v>
       </c>
       <c r="N8">
-        <v>1.062021161981631</v>
+        <v>1.055102489256122</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.053428821732236</v>
+        <v>1.022191392096463</v>
       </c>
       <c r="D9">
-        <v>1.058957240237449</v>
+        <v>1.040532628163616</v>
       </c>
       <c r="E9">
-        <v>1.066491195284448</v>
+        <v>1.040456696416411</v>
       </c>
       <c r="F9">
-        <v>1.072385130120537</v>
+        <v>1.046374388105802</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.05073706916053</v>
+        <v>1.059049005170413</v>
       </c>
       <c r="J9">
-        <v>1.059121070296057</v>
+        <v>1.04698413766687</v>
       </c>
       <c r="K9">
-        <v>1.062046703343928</v>
+        <v>1.053000622794766</v>
       </c>
       <c r="L9">
-        <v>1.069557413098891</v>
+        <v>1.052925804233421</v>
       </c>
       <c r="M9">
-        <v>1.07543341108958</v>
+        <v>1.058757354343678</v>
       </c>
       <c r="N9">
-        <v>1.060625143698762</v>
+        <v>1.048470975233116</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.051967270103258</v>
+        <v>1.01470223571772</v>
       </c>
       <c r="D10">
-        <v>1.057799505286335</v>
+        <v>1.034780688688969</v>
       </c>
       <c r="E10">
-        <v>1.065093652936953</v>
+        <v>1.033734783886192</v>
       </c>
       <c r="F10">
-        <v>1.070961888646383</v>
+        <v>1.039539492201595</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.050296001534027</v>
+        <v>1.056249793291026</v>
       </c>
       <c r="J10">
-        <v>1.058191018633595</v>
+        <v>1.042344437458186</v>
       </c>
       <c r="K10">
-        <v>1.061168983126053</v>
+        <v>1.048549133893818</v>
       </c>
       <c r="L10">
-        <v>1.068438425311847</v>
+        <v>1.047520537221698</v>
       </c>
       <c r="M10">
-        <v>1.074287053307336</v>
+        <v>1.053229751628686</v>
       </c>
       <c r="N10">
-        <v>1.059693771256261</v>
+        <v>1.043824686117955</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.05133504687127</v>
+        <v>1.011370107611806</v>
       </c>
       <c r="D11">
-        <v>1.057298719182042</v>
+        <v>1.032226431709582</v>
       </c>
       <c r="E11">
-        <v>1.064489559738121</v>
+        <v>1.030751821421829</v>
       </c>
       <c r="F11">
-        <v>1.070346702105673</v>
+        <v>1.036506622317752</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.050103714235249</v>
+        <v>1.054992980027658</v>
       </c>
       <c r="J11">
-        <v>1.057788143561727</v>
+        <v>1.040277409051142</v>
       </c>
       <c r="K11">
-        <v>1.060788620034123</v>
+        <v>1.046565161765354</v>
       </c>
       <c r="L11">
-        <v>1.067954164365735</v>
+        <v>1.045116205930682</v>
       </c>
       <c r="M11">
-        <v>1.073790978732751</v>
+        <v>1.05077142243477</v>
       </c>
       <c r="N11">
-        <v>1.05929032405558</v>
+        <v>1.041754722293481</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.051100307857825</v>
+        <v>1.010118257529216</v>
       </c>
       <c r="D12">
-        <v>1.057112784486417</v>
+        <v>1.031267627789713</v>
       </c>
       <c r="E12">
-        <v>1.064265331989304</v>
+        <v>1.02963237256668</v>
       </c>
       <c r="F12">
-        <v>1.070118359023621</v>
+        <v>1.035368480804751</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.050032095100311</v>
+        <v>1.054519146726591</v>
       </c>
       <c r="J12">
-        <v>1.057638475221189</v>
+        <v>1.039500483033322</v>
       </c>
       <c r="K12">
-        <v>1.060647291460654</v>
+        <v>1.045819344065737</v>
       </c>
       <c r="L12">
-        <v>1.06777432967354</v>
+        <v>1.044213061968107</v>
       </c>
       <c r="M12">
-        <v>1.073606761653936</v>
+        <v>1.049848060446535</v>
       </c>
       <c r="N12">
-        <v>1.059140443168832</v>
+        <v>1.040976692951602</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.051150655775285</v>
+        <v>1.010387436299576</v>
       </c>
       <c r="D13">
-        <v>1.057152664488281</v>
+        <v>1.031473756825878</v>
       </c>
       <c r="E13">
-        <v>1.064313422369688</v>
+        <v>1.029873025687449</v>
       </c>
       <c r="F13">
-        <v>1.070167331919784</v>
+        <v>1.035613150684112</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.05004746646627</v>
+        <v>1.05462110683519</v>
       </c>
       <c r="J13">
-        <v>1.057670580596219</v>
+        <v>1.039667557021649</v>
       </c>
       <c r="K13">
-        <v>1.060677608930717</v>
+        <v>1.045979733169367</v>
       </c>
       <c r="L13">
-        <v>1.06781290293507</v>
+        <v>1.044407253097332</v>
       </c>
       <c r="M13">
-        <v>1.073646274692616</v>
+        <v>1.05004659579884</v>
       </c>
       <c r="N13">
-        <v>1.059172594137177</v>
+        <v>1.041144004204155</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.051315641290063</v>
+        <v>1.011266922375774</v>
       </c>
       <c r="D14">
-        <v>1.057283348131435</v>
+        <v>1.032147384358318</v>
       </c>
       <c r="E14">
-        <v>1.064471021743796</v>
+        <v>1.030659524351176</v>
       </c>
       <c r="F14">
-        <v>1.070327823829757</v>
+        <v>1.036412783305367</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.050097798151366</v>
+        <v>1.054953957213906</v>
       </c>
       <c r="J14">
-        <v>1.057775772385722</v>
+        <v>1.040213377105899</v>
       </c>
       <c r="K14">
-        <v>1.060776938678237</v>
+        <v>1.046503695849806</v>
       </c>
       <c r="L14">
-        <v>1.067939298323378</v>
+        <v>1.045041760051765</v>
       </c>
       <c r="M14">
-        <v>1.073775750323965</v>
+        <v>1.050695308647766</v>
       </c>
       <c r="N14">
-        <v>1.059277935311087</v>
+        <v>1.041690599415531</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.05141730717236</v>
+        <v>1.011806904952692</v>
       </c>
       <c r="D15">
-        <v>1.057363877219221</v>
+        <v>1.032561083353186</v>
       </c>
       <c r="E15">
-        <v>1.064568145076585</v>
+        <v>1.031142577820879</v>
       </c>
       <c r="F15">
-        <v>1.070426730043213</v>
+        <v>1.036903908313472</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.050128783331649</v>
+        <v>1.055158101599205</v>
       </c>
       <c r="J15">
-        <v>1.057840581551769</v>
+        <v>1.040548450602198</v>
       </c>
       <c r="K15">
-        <v>1.060838133108042</v>
+        <v>1.046825337125197</v>
       </c>
       <c r="L15">
-        <v>1.068017180210485</v>
+        <v>1.045431351663658</v>
       </c>
       <c r="M15">
-        <v>1.073855530809992</v>
+        <v>1.051093631466361</v>
       </c>
       <c r="N15">
-        <v>1.059342836513583</v>
+        <v>1.042026148754629</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.052009242205711</v>
+        <v>1.014921435421673</v>
       </c>
       <c r="D16">
-        <v>1.057832751895573</v>
+        <v>1.034948825491241</v>
       </c>
       <c r="E16">
-        <v>1.065133766888201</v>
+        <v>1.03393118097771</v>
       </c>
       <c r="F16">
-        <v>1.07100273955729</v>
+        <v>1.039739180157208</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.050308735622296</v>
+        <v>1.056332238185377</v>
       </c>
       <c r="J16">
-        <v>1.058217752905229</v>
+        <v>1.042480361566719</v>
       </c>
       <c r="K16">
-        <v>1.06119422023885</v>
+        <v>1.0486795806315</v>
       </c>
       <c r="L16">
-        <v>1.06847056985929</v>
+        <v>1.047678719944484</v>
       </c>
       <c r="M16">
-        <v>1.074319982686052</v>
+        <v>1.053391495839822</v>
       </c>
       <c r="N16">
-        <v>1.059720543493627</v>
+        <v>1.043960803254312</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.05238071896643</v>
+        <v>1.016850692238797</v>
       </c>
       <c r="D17">
-        <v>1.058127004950043</v>
+        <v>1.03642922883183</v>
       </c>
       <c r="E17">
-        <v>1.065488849059976</v>
+        <v>1.035660637670289</v>
       </c>
       <c r="F17">
-        <v>1.071364346936537</v>
+        <v>1.041497642479521</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.050421266720965</v>
+        <v>1.057056576924644</v>
       </c>
       <c r="J17">
-        <v>1.058454301263437</v>
+        <v>1.043676376972864</v>
       </c>
       <c r="K17">
-        <v>1.061417503452601</v>
+        <v>1.049827310689645</v>
       </c>
       <c r="L17">
-        <v>1.068755041773758</v>
+        <v>1.049071020044562</v>
       </c>
       <c r="M17">
-        <v>1.074611403786758</v>
+        <v>1.054815191568135</v>
       </c>
       <c r="N17">
-        <v>1.059957427777636</v>
+        <v>1.045158517139519</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.052597456595563</v>
+        <v>1.017967433815889</v>
       </c>
       <c r="D18">
-        <v>1.058298687936436</v>
+        <v>1.037286617757924</v>
       </c>
       <c r="E18">
-        <v>1.065696063883057</v>
+        <v>1.036662462627991</v>
       </c>
       <c r="F18">
-        <v>1.071575371133775</v>
+        <v>1.042516291385879</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.050486778535163</v>
+        <v>1.057474774655048</v>
       </c>
       <c r="J18">
-        <v>1.058592260750593</v>
+        <v>1.044368425770814</v>
       </c>
       <c r="K18">
-        <v>1.061547711334884</v>
+        <v>1.050491344278951</v>
       </c>
       <c r="L18">
-        <v>1.068920995227391</v>
+        <v>1.049877002025528</v>
       </c>
       <c r="M18">
-        <v>1.07478141422324</v>
+        <v>1.055639387589334</v>
       </c>
       <c r="N18">
-        <v>1.060095583183088</v>
+        <v>1.045851548726142</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.052671368931979</v>
+        <v>1.018346783255002</v>
       </c>
       <c r="D19">
-        <v>1.058357235865596</v>
+        <v>1.037577943715323</v>
       </c>
       <c r="E19">
-        <v>1.06576673594147</v>
+        <v>1.037002899171935</v>
       </c>
       <c r="F19">
-        <v>1.071647342654202</v>
+        <v>1.04286244862738</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.050509095037835</v>
+        <v>1.057616648538231</v>
       </c>
       <c r="J19">
-        <v>1.058639298769751</v>
+        <v>1.044603464744366</v>
       </c>
       <c r="K19">
-        <v>1.061592103835564</v>
+        <v>1.050716855354944</v>
       </c>
       <c r="L19">
-        <v>1.068977585408996</v>
+        <v>1.050150796549639</v>
       </c>
       <c r="M19">
-        <v>1.074839388347115</v>
+        <v>1.055919376120998</v>
       </c>
       <c r="N19">
-        <v>1.060142688001629</v>
+        <v>1.046086921481995</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.052340856655467</v>
+        <v>1.016644591940396</v>
       </c>
       <c r="D20">
-        <v>1.058095429184436</v>
+        <v>1.036271030429819</v>
       </c>
       <c r="E20">
-        <v>1.065450741605509</v>
+        <v>1.035475805000816</v>
       </c>
       <c r="F20">
-        <v>1.071325539044248</v>
+        <v>1.041309707608048</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.050409206193857</v>
+        <v>1.056979308606304</v>
       </c>
       <c r="J20">
-        <v>1.058428923425509</v>
+        <v>1.043548634613318</v>
       </c>
       <c r="K20">
-        <v>1.061393550314967</v>
+        <v>1.049704733335693</v>
       </c>
       <c r="L20">
-        <v>1.068724517953106</v>
+        <v>1.048922276136208</v>
       </c>
       <c r="M20">
-        <v>1.074580134007332</v>
+        <v>1.054663089441448</v>
       </c>
       <c r="N20">
-        <v>1.059932013900267</v>
+        <v>1.04503059337117</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.051267054487058</v>
+        <v>1.011008332411105</v>
       </c>
       <c r="D21">
-        <v>1.057244862848845</v>
+        <v>1.031949298979485</v>
       </c>
       <c r="E21">
-        <v>1.064424608246289</v>
+        <v>1.030428240828248</v>
       </c>
       <c r="F21">
-        <v>1.070280558407919</v>
+        <v>1.036177636489979</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.050082982105013</v>
+        <v>1.054856136530253</v>
       </c>
       <c r="J21">
-        <v>1.057744796642035</v>
+        <v>1.040052902547619</v>
       </c>
       <c r="K21">
-        <v>1.060747689771949</v>
+        <v>1.04634965044835</v>
       </c>
       <c r="L21">
-        <v>1.067902076880586</v>
+        <v>1.044855195524282</v>
       </c>
       <c r="M21">
-        <v>1.073737621668059</v>
+        <v>1.05050456533284</v>
       </c>
       <c r="N21">
-        <v>1.059246915578291</v>
+        <v>1.041529896964972</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.050592473233273</v>
+        <v>1.007382325970306</v>
       </c>
       <c r="D22">
-        <v>1.056710539004475</v>
+        <v>1.029173710542445</v>
       </c>
       <c r="E22">
-        <v>1.063780360159286</v>
+        <v>1.027188112558793</v>
       </c>
       <c r="F22">
-        <v>1.069624490554983</v>
+        <v>1.032883475945021</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04987674373167</v>
+        <v>1.05348058174614</v>
       </c>
       <c r="J22">
-        <v>1.057314528676516</v>
+        <v>1.037801886470649</v>
       </c>
       <c r="K22">
-        <v>1.060341352973107</v>
+        <v>1.044188568789477</v>
       </c>
       <c r="L22">
-        <v>1.067385215521279</v>
+        <v>1.042239546701305</v>
       </c>
       <c r="M22">
-        <v>1.073208173830311</v>
+        <v>1.047830488438805</v>
       </c>
       <c r="N22">
-        <v>1.058816036582909</v>
+        <v>1.039275684186977</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.050950028043804</v>
+        <v>1.00931259803445</v>
       </c>
       <c r="D23">
-        <v>1.056993750048274</v>
+        <v>1.030650801367808</v>
       </c>
       <c r="E23">
-        <v>1.064121800354715</v>
+        <v>1.028912274423136</v>
       </c>
       <c r="F23">
-        <v>1.069972193750764</v>
+        <v>1.034636368979086</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.049986181362801</v>
+        <v>1.054213737846246</v>
       </c>
       <c r="J23">
-        <v>1.057542633909106</v>
+        <v>1.039000376320818</v>
       </c>
       <c r="K23">
-        <v>1.060556783995518</v>
+        <v>1.045339232056089</v>
       </c>
       <c r="L23">
-        <v>1.06765919039202</v>
+        <v>1.043631867122632</v>
       </c>
       <c r="M23">
-        <v>1.073488817875691</v>
+        <v>1.049253873538781</v>
       </c>
       <c r="N23">
-        <v>1.059044465751093</v>
+        <v>1.040475876030203</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.052358868527912</v>
+        <v>1.01673774619703</v>
       </c>
       <c r="D24">
-        <v>1.058109696758907</v>
+        <v>1.036342532310684</v>
       </c>
       <c r="E24">
-        <v>1.065467960410687</v>
+        <v>1.035559344326497</v>
       </c>
       <c r="F24">
-        <v>1.07134307433684</v>
+        <v>1.041394648976965</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.050414656215264</v>
+        <v>1.057014236091677</v>
       </c>
       <c r="J24">
-        <v>1.058440390625038</v>
+        <v>1.043606373059104</v>
       </c>
       <c r="K24">
-        <v>1.061404373797859</v>
+        <v>1.049760137479588</v>
       </c>
       <c r="L24">
-        <v>1.068738310274161</v>
+        <v>1.048989505993194</v>
       </c>
       <c r="M24">
-        <v>1.074594263383807</v>
+        <v>1.054731837036666</v>
       </c>
       <c r="N24">
-        <v>1.059943497384535</v>
+        <v>1.045088413812172</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.053996159319252</v>
+        <v>1.025020585997532</v>
       </c>
       <c r="D25">
-        <v>1.059406653597585</v>
+        <v>1.042709420443997</v>
       </c>
       <c r="E25">
-        <v>1.067034077097912</v>
+        <v>1.04300248247618</v>
       </c>
       <c r="F25">
-        <v>1.072938008358619</v>
+        <v>1.04896315285783</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.05090694555797</v>
+        <v>1.060096333691936</v>
       </c>
       <c r="J25">
-        <v>1.059481588958292</v>
+        <v>1.04873428221888</v>
       </c>
       <c r="K25">
-        <v>1.062386796295663</v>
+        <v>1.054679027527923</v>
       </c>
       <c r="L25">
-        <v>1.069991576874961</v>
+        <v>1.054968000074606</v>
       </c>
       <c r="M25">
-        <v>1.07587822202753</v>
+        <v>1.060846118184707</v>
       </c>
       <c r="N25">
-        <v>1.060986174338849</v>
+        <v>1.050223605191134</v>
       </c>
     </row>
   </sheetData>
